--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-7.461803674664224</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.54107720124027</v>
+        <v>-17.54932984483162</v>
       </c>
       <c r="F2" t="n">
-        <v>3.621380142750438</v>
+        <v>3.630380804392428</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.410707671629378</v>
+        <v>-9.408854738026818</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.613269038329589</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.16834656027919</v>
+        <v>-18.17726410880444</v>
       </c>
       <c r="F3" t="n">
-        <v>3.514706901921221</v>
+        <v>3.523507114281668</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.252030064756788</v>
+        <v>-9.249790899611741</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.720097454922434</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.58566729743218</v>
+        <v>-18.59416439136688</v>
       </c>
       <c r="F4" t="n">
-        <v>3.748328095056752</v>
+        <v>3.757411869815479</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.209334367788019</v>
+        <v>-9.207016978533101</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.769199136851803</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.38335276883116</v>
+        <v>-19.39337034390147</v>
       </c>
       <c r="F5" t="n">
-        <v>3.994318475565577</v>
+        <v>4.002967128713149</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.111686233635126</v>
+        <v>-9.111314669113241</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.760127294770734</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.95417365458468</v>
+        <v>-19.96292497687646</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074591079313453</v>
+        <v>4.0820761488267</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.519363495680913</v>
+        <v>-8.517031439405395</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.692976410507163</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.64176846935447</v>
+        <v>-20.65044645654324</v>
       </c>
       <c r="F7" t="n">
-        <v>4.218885227983582</v>
+        <v>4.226233405304555</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.352227906928558</v>
+        <v>-8.350458086442735</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.570293140911027</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.17627381210054</v>
+        <v>-21.18473668298717</v>
       </c>
       <c r="F8" t="n">
-        <v>4.365775439300041</v>
+        <v>4.374277422241606</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.015414445853054</v>
+        <v>-8.011972585018746</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.39659125545936</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.66217264857575</v>
+        <v>-21.6697163861714</v>
       </c>
       <c r="F9" t="n">
-        <v>4.490391335330836</v>
+        <v>4.498702647004592</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.34891316027279</v>
+        <v>-8.34675710824448</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.178379192559547</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.3392218755336</v>
+        <v>-22.34605670713355</v>
       </c>
       <c r="F10" t="n">
-        <v>4.877048221414539</v>
+        <v>4.885261752950956</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.097950659780311</v>
+        <v>-8.096816410187188</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.923818119256741</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.19283758549009</v>
+        <v>-23.19934485362995</v>
       </c>
       <c r="F11" t="n">
-        <v>5.045518509041561</v>
+        <v>5.053546258317035</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.665703784662628</v>
+        <v>-7.664491310959633</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.642670333677716</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.96605846652702</v>
+        <v>-23.9729030761407</v>
       </c>
       <c r="F12" t="n">
-        <v>5.377433185236416</v>
+        <v>5.385646716772833</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.105325817576836</v>
+        <v>-7.103580442125348</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.342736748558155</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.52322435610125</v>
+        <v>-24.52936494872609</v>
       </c>
       <c r="F13" t="n">
-        <v>6.15457016077375</v>
+        <v>6.162656578131626</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.84100166131708</v>
+        <v>-6.839754964566017</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.037247917567543</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.7011425585608</v>
+        <v>-25.70792850009208</v>
       </c>
       <c r="F14" t="n">
-        <v>6.294244197954642</v>
+        <v>6.302086164969174</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.335018784632584</v>
+        <v>-6.335097008742455</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.735314062910133</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08196197044541</v>
+        <v>-26.08767721947283</v>
       </c>
       <c r="F15" t="n">
-        <v>6.541168378775049</v>
+        <v>6.548829452535505</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.832355543610723</v>
+        <v>-5.831377742237341</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.44762589370325</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.12137460836526</v>
+        <v>-27.12815566088967</v>
       </c>
       <c r="F16" t="n">
-        <v>6.796599431543887</v>
+        <v>6.804412064517217</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.588540771157676</v>
+        <v>-5.588447880027203</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.183540801254152</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.97841262312858</v>
+        <v>-27.98448965866416</v>
       </c>
       <c r="F17" t="n">
-        <v>7.125834931975674</v>
+        <v>7.13403379649149</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.145283852575698</v>
+        <v>-5.145146960383425</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.952349751376582</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.53622386160924</v>
+        <v>-28.54210533687014</v>
       </c>
       <c r="F18" t="n">
-        <v>7.51880841493143</v>
+        <v>7.526816608179437</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.991622366748562</v>
+        <v>-4.992477942950272</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.763255975088133</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.47191621884749</v>
+        <v>-29.4773234604423</v>
       </c>
       <c r="F19" t="n">
-        <v>7.62802882833831</v>
+        <v>7.635645901036964</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.861672564225962</v>
+        <v>-4.862449916317802</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.623293405396905</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.93272467208169</v>
+        <v>-29.93822724931041</v>
       </c>
       <c r="F20" t="n">
-        <v>7.817829852925682</v>
+        <v>7.824254007948809</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.686871012706285</v>
+        <v>-4.686680341438476</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.541850126946442</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.77645481015328</v>
+        <v>-30.78286918716267</v>
       </c>
       <c r="F21" t="n">
-        <v>8.131865431008229</v>
+        <v>8.138842043807317</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.601323170549008</v>
+        <v>-4.600976051061457</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.522199672634572</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.94590045465025</v>
+        <v>-30.951566813609</v>
       </c>
       <c r="F22" t="n">
-        <v>8.156789588015762</v>
+        <v>8.163731977766782</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.814938547585122</v>
+        <v>-4.814449646898431</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.568746063476889</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.43728475683013</v>
+        <v>-31.44237910198546</v>
       </c>
       <c r="F23" t="n">
-        <v>8.196943001413734</v>
+        <v>8.203186263182785</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.623871270219219</v>
+        <v>-4.622541460351418</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.681234832607593</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.45546208436133</v>
+        <v>-31.46073976727416</v>
       </c>
       <c r="F24" t="n">
-        <v>8.573787650715539</v>
+        <v>8.580446478068277</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.809985983628938</v>
+        <v>-4.809345523729371</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.856575763670302</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.543493542007</v>
+        <v>-31.54839477139108</v>
       </c>
       <c r="F25" t="n">
-        <v>8.520072132268744</v>
+        <v>8.526442508216334</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.63385462224146</v>
+        <v>-4.633057714122153</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.089149696143436</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.4832683109169</v>
+        <v>-31.48652438949027</v>
       </c>
       <c r="F26" t="n">
-        <v>8.151744132929107</v>
+        <v>8.157131818496447</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.665095376121046</v>
+        <v>-4.663491781868697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.369464052405897</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.59594280767526</v>
+        <v>-31.59942622506794</v>
       </c>
       <c r="F27" t="n">
-        <v>8.354413023590199</v>
+        <v>8.360685619400451</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.44129130877428</v>
+        <v>-4.440460177606905</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.687597611207497</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.30377820181186</v>
+        <v>-31.30783363300796</v>
       </c>
       <c r="F28" t="n">
-        <v>8.333390294062465</v>
+        <v>8.339477107611774</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.661809963506479</v>
+        <v>-4.660739271002624</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.027915068245424</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.0519039015387</v>
+        <v>-31.0552064256773</v>
       </c>
       <c r="F29" t="n">
-        <v>8.172986867765852</v>
+        <v>8.179880367448202</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.557972346660073</v>
+        <v>-4.556598535730469</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.378232729669162</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.33239111450047</v>
+        <v>-31.33613609376053</v>
       </c>
       <c r="F30" t="n">
-        <v>7.792025674682105</v>
+        <v>7.798616055938706</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.805072531727688</v>
+        <v>-4.80497475159035</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.724395184327237</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.05964075490559</v>
+        <v>-31.06287972195492</v>
       </c>
       <c r="F31" t="n">
-        <v>7.838045896320375</v>
+        <v>7.845868307307439</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.743383043080955</v>
+        <v>-4.743730162568506</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.052920445576178</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.8426592966416</v>
+        <v>-30.84608649045531</v>
       </c>
       <c r="F32" t="n">
-        <v>7.721775535011404</v>
+        <v>7.729519721888598</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.931766255676922</v>
+        <v>-4.932206266294944</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.351901098883706</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.34287568066436</v>
+        <v>-30.34544974277979</v>
       </c>
       <c r="F33" t="n">
-        <v>7.777691106548311</v>
+        <v>7.785430404418637</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.829106889485442</v>
+        <v>-4.828578876743815</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.610969036583244</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.9775055304792</v>
+        <v>-29.97993536689206</v>
       </c>
       <c r="F34" t="n">
-        <v>7.765659260648833</v>
+        <v>7.774425249961212</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.903268234649675</v>
+        <v>-4.902754888928649</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.822802955132613</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.73021222964034</v>
+        <v>-29.73280584778324</v>
       </c>
       <c r="F35" t="n">
-        <v>7.862451818600015</v>
+        <v>7.871804488736423</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.822814737647722</v>
+        <v>-4.821592485930993</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.982043036835858</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.38130092107266</v>
+        <v>-29.38520723755932</v>
       </c>
       <c r="F36" t="n">
-        <v>7.948317446203642</v>
+        <v>7.958427912404423</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.000520359246346</v>
+        <v>-4.998398530266106</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.088060082610113</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.28389479275968</v>
+        <v>-29.28673041674249</v>
       </c>
       <c r="F37" t="n">
-        <v>8.113741882552576</v>
+        <v>8.123324336011729</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.049478874011633</v>
+        <v>-5.047757943594479</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.143512919201225</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.65103974337531</v>
+        <v>-28.6535893604564</v>
       </c>
       <c r="F38" t="n">
-        <v>7.867761280057485</v>
+        <v>7.877534404784448</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.036928793384262</v>
+        <v>-5.034875410500158</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.152647415563917</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.33254050202326</v>
+        <v>-28.33662526726057</v>
       </c>
       <c r="F39" t="n">
-        <v>7.752092266593144</v>
+        <v>7.761576939914959</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.139544158513941</v>
+        <v>-5.138507689058154</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.122156641945784</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.8915643051447</v>
+        <v>-27.89545595461077</v>
       </c>
       <c r="F40" t="n">
-        <v>7.794509290170498</v>
+        <v>7.803338836572146</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.981140336025896</v>
+        <v>-4.979341181498871</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.060510176082524</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.6664059828958</v>
+        <v>-27.67063497383568</v>
       </c>
       <c r="F41" t="n">
-        <v>7.569878980663224</v>
+        <v>7.57866452600307</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.496138541372982</v>
+        <v>-5.494935845683721</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.976695794385408</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.02027727986776</v>
+        <v>-27.02491450288102</v>
       </c>
       <c r="F42" t="n">
-        <v>7.47297886456097</v>
+        <v>7.481818188976352</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.213324161142554</v>
+        <v>-5.212688590249854</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.882572714098785</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.67231199412882</v>
+        <v>-26.67737700524294</v>
       </c>
       <c r="F43" t="n">
-        <v>7.485983622826963</v>
+        <v>7.494901171352216</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.326001102404343</v>
+        <v>-5.324989077982891</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.788504648558522</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.09800769098262</v>
+        <v>-26.10297981096627</v>
       </c>
       <c r="F44" t="n">
-        <v>7.580395234433958</v>
+        <v>7.589210113815005</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.428577355479085</v>
+        <v>-5.426959094206136</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.706984420446993</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.40635011150643</v>
+        <v>-25.41086266484459</v>
       </c>
       <c r="F45" t="n">
-        <v>7.644348333260072</v>
+        <v>7.652982319387044</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.482635104406564</v>
+        <v>-5.481178180360223</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.647898913399194</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.08483924192437</v>
+        <v>-25.08981136190802</v>
       </c>
       <c r="F46" t="n">
-        <v>7.474719351005591</v>
+        <v>7.483514674359171</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.373351133910414</v>
+        <v>-5.3711070797585</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.620014873718807</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.87110163971658</v>
+        <v>-24.87653332634572</v>
       </c>
       <c r="F47" t="n">
-        <v>7.576127131439141</v>
+        <v>7.585470023561816</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.273483390639942</v>
+        <v>-5.27049131843739</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.630505223246687</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.44501002424434</v>
+        <v>-24.45135106615073</v>
       </c>
       <c r="F48" t="n">
-        <v>7.555554190543162</v>
+        <v>7.564457072047815</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.224431984744184</v>
+        <v>-5.220755451580264</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.682107710284105</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.65069307857667</v>
+        <v>-23.65648655171396</v>
       </c>
       <c r="F49" t="n">
-        <v>7.829377687145335</v>
+        <v>7.839268148037104</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.339343202144153</v>
+        <v>-5.336272905831731</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.779856940905134</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.58750266482179</v>
+        <v>-23.59458683577195</v>
       </c>
       <c r="F50" t="n">
-        <v>7.566950465549942</v>
+        <v>7.575980461233134</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.35936368526417</v>
+        <v>-5.35654272830196</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.921628535057697</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.9186474133729</v>
+        <v>-22.92537957582864</v>
       </c>
       <c r="F51" t="n">
-        <v>7.644749231823159</v>
+        <v>7.654400131378449</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.178328649989177</v>
+        <v>-5.175038348367742</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.107640652127079</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.40326786549019</v>
+        <v>-22.41032759140601</v>
       </c>
       <c r="F52" t="n">
-        <v>7.484179579293071</v>
+        <v>7.49361047353935</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.371576424417723</v>
+        <v>-5.369351926293278</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.332873274579541</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.05218339337016</v>
+        <v>-22.05984446713061</v>
       </c>
       <c r="F53" t="n">
-        <v>7.856785459641261</v>
+        <v>7.866578140395691</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.312492776431056</v>
+        <v>-5.308982469500611</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.589786561849095</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.29354153081037</v>
+        <v>-21.30001457590216</v>
       </c>
       <c r="F54" t="n">
-        <v>7.803739735135233</v>
+        <v>7.813796422260477</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.322647243693639</v>
+        <v>-5.319249383921133</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.868380844657571</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.02011893277128</v>
+        <v>-21.02708087854977</v>
       </c>
       <c r="F55" t="n">
-        <v>7.60196064372392</v>
+        <v>7.61154798618994</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.481407963682968</v>
+        <v>-5.478264332267542</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.155568435949446</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.51108042679496</v>
+        <v>-20.51889305976829</v>
       </c>
       <c r="F56" t="n">
-        <v>7.49576652556766</v>
+        <v>7.504234285461156</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.520622687762493</v>
+        <v>-5.516432808877546</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.44138830660426</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.22813893238599</v>
+        <v>-20.23643068803228</v>
       </c>
       <c r="F57" t="n">
-        <v>7.414462341370864</v>
+        <v>7.422450978591403</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.767395309370024</v>
+        <v>-5.764188120865328</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.710675368049701</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.74096406511852</v>
+        <v>-19.74986694662317</v>
       </c>
       <c r="F58" t="n">
-        <v>7.051702920852642</v>
+        <v>7.059046209166748</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.048474092162698</v>
+        <v>-6.045306015712938</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.955984287919936</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.22272444821867</v>
+        <v>-19.23108464996109</v>
       </c>
       <c r="F59" t="n">
-        <v>7.375149837154002</v>
+        <v>7.383255810539346</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.935298472200484</v>
+        <v>-5.931744164208237</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.16826568973375</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.80763309819699</v>
+        <v>-18.81614974815916</v>
       </c>
       <c r="F60" t="n">
-        <v>7.229032088922514</v>
+        <v>7.236683384669236</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.193134916347845</v>
+        <v>-6.190142844145293</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.34041011736087</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.51529982159668</v>
+        <v>-18.52388491765498</v>
       </c>
       <c r="F61" t="n">
-        <v>6.941631820250919</v>
+        <v>6.948671990139276</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.283004640575476</v>
+        <v>-6.278609423402119</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.46782517876626</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.159389899699</v>
+        <v>-18.16747631705688</v>
       </c>
       <c r="F62" t="n">
-        <v>7.073346554252475</v>
+        <v>7.081139631198337</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.285150914590051</v>
+        <v>-6.280887700602102</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.54683341638461</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.59234332724674</v>
+        <v>-17.6000924031308</v>
       </c>
       <c r="F63" t="n">
-        <v>6.911261309593644</v>
+        <v>6.91874637910689</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.170748153904242</v>
+        <v>-6.166768502314573</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.57830385691943</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.60230712324151</v>
+        <v>-17.6113224519041</v>
       </c>
       <c r="F64" t="n">
-        <v>6.716742393379699</v>
+        <v>6.72452080330496</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.345011914668558</v>
+        <v>-6.33809885895874</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.56257386921654</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.36767390568453</v>
+        <v>-17.3768994616424</v>
       </c>
       <c r="F65" t="n">
-        <v>6.898994791364554</v>
+        <v>6.90687587043402</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.306760324941815</v>
+        <v>-6.300658844371906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.50559789961419</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.31338148442744</v>
+        <v>-17.32349683963508</v>
       </c>
       <c r="F66" t="n">
-        <v>6.820687568377177</v>
+        <v>6.828060190732485</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.35168052003503</v>
+        <v>-6.345417702238512</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.41334259244681</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.18002893312547</v>
+        <v>-17.19082386028762</v>
       </c>
       <c r="F67" t="n">
-        <v>6.662885093733763</v>
+        <v>6.670355496226409</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.409551694318703</v>
+        <v>-6.403591994947933</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.29220476886927</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.83643441952555</v>
+        <v>-16.84688222720015</v>
       </c>
       <c r="F68" t="n">
-        <v>6.55958037863585</v>
+        <v>6.567212118355105</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.628544978908423</v>
+        <v>-6.622849285908468</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.14938146882573</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.60334123913165</v>
+        <v>-16.61258635111698</v>
       </c>
       <c r="F69" t="n">
-        <v>6.677410333135367</v>
+        <v>6.684298943810851</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.305689632437962</v>
+        <v>-6.300619732316971</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.991006245873326</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.41953902596998</v>
+        <v>-16.43105752614843</v>
       </c>
       <c r="F70" t="n">
-        <v>6.639525418923643</v>
+        <v>6.646687813983674</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.210578892848998</v>
+        <v>-6.205450324645604</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.823457200198616</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.51302172627226</v>
+        <v>-16.52362109315973</v>
       </c>
       <c r="F71" t="n">
-        <v>6.503601250009674</v>
+        <v>6.51073920003537</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.950865070064742</v>
+        <v>-5.944861369632171</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.654330730150578</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.47809466121502</v>
+        <v>-16.48948604721493</v>
       </c>
       <c r="F72" t="n">
-        <v>6.435668499593891</v>
+        <v>6.442439774104568</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.895321063049721</v>
+        <v>-5.889219582479812</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.489937894893208</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.43193754738448</v>
+        <v>-16.44314804013031</v>
       </c>
       <c r="F73" t="n">
-        <v>6.476012584259673</v>
+        <v>6.483042976134297</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.05400355892918</v>
+        <v>-6.048122083668281</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.336392582948614</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.53515914936565</v>
+        <v>-16.54683409776384</v>
       </c>
       <c r="F74" t="n">
-        <v>6.355254114646874</v>
+        <v>6.363164527757542</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.716745198228786</v>
+        <v>-5.711484626839986</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.197121099081512</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.83919181939849</v>
+        <v>-16.85143389259325</v>
       </c>
       <c r="F75" t="n">
-        <v>6.141335619185011</v>
+        <v>6.148654462464783</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.748215735431117</v>
+        <v>-5.743429397708407</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.07398051276104</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.90948107112413</v>
+        <v>-16.92117557554979</v>
       </c>
       <c r="F76" t="n">
-        <v>6.030311162244239</v>
+        <v>6.037537114393539</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.592104857163656</v>
+        <v>-5.58737718752335</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.966812568815099</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.05715352353929</v>
+        <v>-17.06866224570401</v>
       </c>
       <c r="F77" t="n">
-        <v>6.010432460323362</v>
+        <v>6.017262402916443</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.425013269473104</v>
+        <v>-5.420794056546956</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.871623305135275</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.49958908896763</v>
+        <v>-17.51134226147569</v>
       </c>
       <c r="F78" t="n">
-        <v>5.954688004026798</v>
+        <v>5.961410388468806</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.029321498699343</v>
+        <v>-5.024696498203241</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.788880895207976</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.60077686409217</v>
+        <v>-17.61210469300281</v>
       </c>
       <c r="F79" t="n">
-        <v>6.028189333263998</v>
+        <v>6.034965496781542</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.824476999982473</v>
+        <v>-4.819930223596242</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.713837918557262</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.04105637749219</v>
+        <v>-18.05211042201829</v>
       </c>
       <c r="F80" t="n">
-        <v>5.706981582107685</v>
+        <v>5.712286154558289</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.346107234082313</v>
+        <v>-4.3412622282772</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.644341141935598</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.88451762018609</v>
+        <v>-18.89472097751734</v>
       </c>
       <c r="F81" t="n">
-        <v>5.810877867036496</v>
+        <v>5.817429136238161</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.222923817063524</v>
+        <v>-4.218147257354548</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.576660483900124</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.6184944431023</v>
+        <v>-19.63003738831508</v>
       </c>
       <c r="F82" t="n">
-        <v>5.552845862614459</v>
+        <v>5.55906956835604</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.138666672719112</v>
+        <v>-4.134017227188676</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.508032192280565</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.38246532314703</v>
+        <v>-20.39344603257012</v>
       </c>
       <c r="F83" t="n">
-        <v>5.239944534125034</v>
+        <v>5.245337108699242</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.052375701518063</v>
+        <v>-4.047775146056297</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.436523047989073</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.49254855532814</v>
+        <v>-21.50444350903534</v>
       </c>
       <c r="F84" t="n">
-        <v>5.124119072440952</v>
+        <v>5.129853877495844</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.721218821387579</v>
+        <v>-3.717737848498336</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.358542037335379</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.5440028171612</v>
+        <v>-22.55626444638342</v>
       </c>
       <c r="F85" t="n">
-        <v>5.240760998271809</v>
+        <v>5.246794032745583</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.771326252766591</v>
+        <v>-3.768143509296229</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.2769912459453</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.35944516150081</v>
+        <v>-23.37199035312132</v>
       </c>
       <c r="F86" t="n">
-        <v>4.872100546465221</v>
+        <v>4.878294918165602</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.703393502350807</v>
+        <v>-3.70167746094052</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.190994291596486</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.07344061335194</v>
+        <v>-24.08554090534755</v>
       </c>
       <c r="F87" t="n">
-        <v>4.623631439474869</v>
+        <v>4.628500890314316</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.708746964870079</v>
+        <v>-3.705789115715596</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.103984376997257</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.40138288052964</v>
+        <v>-25.41391340512954</v>
       </c>
       <c r="F88" t="n">
-        <v>4.675733585655582</v>
+        <v>4.680881709886443</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.671292283262644</v>
+        <v>-3.667840644414602</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.017713916045306</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.82578036418471</v>
+        <v>-26.83907846286272</v>
       </c>
       <c r="F89" t="n">
-        <v>4.151622271508566</v>
+        <v>4.156594391492218</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.666491278519333</v>
+        <v>-3.662765855286744</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.933903434667667</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.18660853605272</v>
+        <v>-28.19946173510584</v>
       </c>
       <c r="F90" t="n">
-        <v>4.332950647195574</v>
+        <v>4.337233417210991</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.661939613126235</v>
+        <v>-3.658028407632703</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.854046904595261</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.01037921265234</v>
+        <v>-30.02523690452089</v>
       </c>
       <c r="F91" t="n">
-        <v>3.841072555322128</v>
+        <v>3.845335769310078</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.01410944477072</v>
+        <v>-4.010325353455728</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.777493018370844</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.72207918484166</v>
+        <v>-31.73664109179477</v>
       </c>
       <c r="F92" t="n">
-        <v>3.525311157815559</v>
+        <v>3.529290809405228</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.064901337111099</v>
+        <v>-4.060858128432161</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.707254154088294</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.3893136395764</v>
+        <v>-33.40297108025913</v>
       </c>
       <c r="F93" t="n">
-        <v>3.226441279034181</v>
+        <v>3.230083589150033</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.467462162532876</v>
+        <v>-4.462186924123475</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.642215835676213</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.29419294009814</v>
+        <v>-35.3085397307491</v>
       </c>
       <c r="F94" t="n">
-        <v>2.771440965957875</v>
+        <v>2.775435284568144</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.495935738525788</v>
+        <v>-4.490430716793642</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.586083432564924</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.50814303222907</v>
+        <v>-37.52245804433539</v>
       </c>
       <c r="F95" t="n">
-        <v>2.17179938472389</v>
+        <v>2.175676367169353</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.709463113438299</v>
+        <v>-4.703811421500145</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.540805074739368</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.44235637395229</v>
+        <v>-39.45677649970626</v>
       </c>
       <c r="F96" t="n">
-        <v>1.986677139708155</v>
+        <v>1.989527430711567</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.006763621015397</v>
+        <v>-5.001649719832604</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.507819031804475</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.56838990009893</v>
+        <v>-41.5828466934044</v>
       </c>
       <c r="F97" t="n">
-        <v>1.365709710520687</v>
+        <v>1.367934208645133</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.444935972455783</v>
+        <v>-5.440051854595734</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.490025733895363</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.51207080361993</v>
+        <v>-43.525899359543</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9915735710231536</v>
+        <v>0.9933580585295775</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.730116632009798</v>
+        <v>-5.724367159934307</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.486873133021794</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.03040557427813</v>
+        <v>-46.04402879191279</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8190942977652611</v>
+        <v>0.8204534416742635</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.068294126001172</v>
+        <v>-6.063121556735976</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.502293373244694</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.59176238311345</v>
+        <v>-48.60463880494919</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.06514615120557718</v>
+        <v>-0.06384078637211088</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.374561072172192</v>
+        <v>-6.371080099282949</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.53282512540914</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.51205550003485</v>
+        <v>-50.52473513934419</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2056562085607128</v>
+        <v>-0.2055339833890399</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.840312311348844</v>
+        <v>-6.838371375622679</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.584574391927971</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.83160080698085</v>
+        <v>-52.84405677422603</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.631302924408062</v>
+        <v>-0.630838468755705</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.15048557400653</v>
+        <v>-7.148925980815984</v>
       </c>
     </row>
   </sheetData>
